--- a/output/EssencialReations_analise/Reactions/@união.xlsx
+++ b/output/EssencialReations_analise/Reactions/@união.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anabe\OneDrive\Área de Trabalho\faculdade\@Lab\Bisch\V.cholerae1\V. cholerae metabolism\output\EssencialReations_analise\Reactions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4DFF500-4774-4174-9B84-79A419801DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD5A0A8-693A-4B79-865A-C4ECDD3D533D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="144">
   <si>
     <t>id</t>
   </si>
@@ -455,33 +455,6 @@
   </si>
   <si>
     <t>x</t>
-  </si>
-  <si>
-    <t>rxn14421_c0</t>
-  </si>
-  <si>
-    <t>cytochrome-bo reductase (ubiquinol: 2 protons)_c0</t>
-  </si>
-  <si>
-    <t>(1) Ubiquinol-8_c0[c0] + (1) cytochrome-bo-ox_c0[c0] -&gt; (2) H+_e0[e0] + (1) Ubiquinone-8_c0[c0] + (1) cytochrome-bo-red_c0[c0]</t>
-  </si>
-  <si>
-    <t>rxn14422_c0</t>
-  </si>
-  <si>
-    <t>cytochrome-bd oxidase (2 protons translocated)_c0</t>
-  </si>
-  <si>
-    <t>(0.5) O2_c0[c0] + (4) H+_c0[c0] + (1) cytochrome-bo-red_c0[c0] -&gt; (1) H2O_c0[c0] + (2) H+_e0[e0] + (1) cytochrome-bo-ox_c0[c0]</t>
-  </si>
-  <si>
-    <t>rxn00250_c0</t>
-  </si>
-  <si>
-    <t>Pyruvate:carbon-dioxide ligase (ADP-forming)_c0</t>
-  </si>
-  <si>
-    <t>(1) ATP_c0[c0] + (1) Pyruvate_c0[c0] + (1) H2CO3_c0[c0] &lt;- (1) ADP_c0[c0] + (1) Phosphate_c0[c0] + (1) Oxaloacetate_c0[c0] + (1) H+_c0[c0]</t>
   </si>
 </sst>
 </file>
@@ -505,7 +478,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -515,6 +488,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,12 +525,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -898,10 +878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1770,37 +1750,16 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B47" t="s">
-        <v>145</v>
-      </c>
-      <c r="C47" t="s">
-        <v>146</v>
-      </c>
+      <c r="A47" s="3"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B48" t="s">
-        <v>148</v>
-      </c>
-      <c r="C48" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B49" t="s">
-        <v>151</v>
-      </c>
-      <c r="C49" t="s">
-        <v>152</v>
-      </c>
+      <c r="A48" s="3"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{00000000-0001-0000-0000-000000000000}">

--- a/output/EssencialReations_analise/Reactions/@união.xlsx
+++ b/output/EssencialReations_analise/Reactions/@união.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anabe\OneDrive\Área de Trabalho\faculdade\@Lab\Bisch\V.cholerae1\V. cholerae metabolism\output\EssencialReations_analise\Reactions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD5A0A8-693A-4B79-865A-C4ECDD3D533D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEBD4EAA-4ED0-42CC-961F-9C9CAD9BC931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
   <si>
     <t>id</t>
   </si>
@@ -454,14 +454,23 @@
     <t>Grp4</t>
   </si>
   <si>
-    <t>x</t>
+    <t>rxnbio1</t>
+  </si>
+  <si>
+    <t>formação de biomassa</t>
+  </si>
+  <si>
+    <t>rxnbio2</t>
+  </si>
+  <si>
+    <t>formação de energia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -477,19 +486,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -525,13 +534,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -880,8 +888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K45" sqref="K45"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -914,862 +922,909 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F2" t="s">
-        <v>143</v>
+        <v>135</v>
+      </c>
+      <c r="H2">
+        <v>19.032170000000001</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>135</v>
-      </c>
-      <c r="H3" t="s">
-        <v>143</v>
+        <v>91</v>
+      </c>
+      <c r="F3">
+        <v>-8.7963699999999996</v>
+      </c>
+      <c r="H3">
+        <v>-34.389800000000001</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F4" t="s">
-        <v>143</v>
-      </c>
-      <c r="H4" t="s">
-        <v>143</v>
+        <v>93</v>
+      </c>
+      <c r="F4">
+        <v>-101.34900450000001</v>
+      </c>
+      <c r="H4">
+        <v>194.82335</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F5" t="s">
-        <v>143</v>
-      </c>
-      <c r="H5" t="s">
-        <v>143</v>
+        <v>65</v>
+      </c>
+      <c r="D5">
+        <v>0.63036077777777777</v>
+      </c>
+      <c r="E5">
+        <v>2.8579599999999998</v>
+      </c>
+      <c r="F5">
+        <v>-5.5509195000000009</v>
+      </c>
+      <c r="H5">
+        <v>128.66485</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" t="s">
-        <v>143</v>
-      </c>
-      <c r="E6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F6" t="s">
-        <v>143</v>
-      </c>
-      <c r="H6" t="s">
-        <v>143</v>
+        <v>110</v>
+      </c>
+      <c r="G6">
+        <v>-4.7020199490445878</v>
+      </c>
+      <c r="H6">
+        <v>-19.032170000000001</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G7" t="s">
-        <v>143</v>
-      </c>
-      <c r="H7" t="s">
-        <v>143</v>
+        <v>72</v>
+      </c>
+      <c r="D7">
+        <v>4.4722000000000005E-2</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>9.36591855</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>124</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" t="s">
-        <v>143</v>
-      </c>
-      <c r="E8" t="s">
-        <v>143</v>
-      </c>
-      <c r="F8" t="s">
-        <v>143</v>
-      </c>
-      <c r="G8" t="s">
-        <v>143</v>
-      </c>
-      <c r="H8" t="s">
-        <v>143</v>
+        <v>136</v>
+      </c>
+      <c r="H8">
+        <v>9.6942699999999995</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
+      <c r="A9" t="s">
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" t="s">
-        <v>143</v>
-      </c>
-      <c r="E9" t="s">
-        <v>143</v>
-      </c>
-      <c r="F9" t="s">
-        <v>143</v>
-      </c>
-      <c r="G9" t="s">
-        <v>143</v>
+        <v>112</v>
+      </c>
+      <c r="G9">
+        <v>3.2817214649681485</v>
+      </c>
+      <c r="H9">
+        <v>25.112805000000002</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>26</v>
+      <c r="A10" t="s">
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>97</v>
-      </c>
-      <c r="F10" t="s">
-        <v>143</v>
+        <v>71</v>
+      </c>
+      <c r="D10">
+        <v>0.21936270000000002</v>
+      </c>
+      <c r="E10">
+        <v>4.3279699999999997</v>
+      </c>
+      <c r="F10">
+        <v>0.72488090000000005</v>
+      </c>
+      <c r="G10">
+        <v>29.465841719745168</v>
+      </c>
+      <c r="H10">
+        <v>45.33475</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C11" t="s">
-        <v>136</v>
-      </c>
-      <c r="H11" t="s">
-        <v>143</v>
+        <v>129</v>
+      </c>
+      <c r="H11">
+        <v>6.5586700000000002</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="C12" t="s">
-        <v>112</v>
-      </c>
-      <c r="G12" t="s">
-        <v>143</v>
-      </c>
-      <c r="H12" t="s">
-        <v>143</v>
+        <v>128</v>
+      </c>
+      <c r="H12">
+        <v>-9.6942699999999995</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" t="s">
-        <v>143</v>
-      </c>
-      <c r="E13" t="s">
-        <v>143</v>
-      </c>
-      <c r="F13" t="s">
-        <v>143</v>
-      </c>
-      <c r="G13" t="s">
-        <v>143</v>
-      </c>
-      <c r="H13" t="s">
-        <v>143</v>
+        <v>75</v>
+      </c>
+      <c r="D13">
+        <v>-0.34706188888888889</v>
+      </c>
+      <c r="E13">
+        <v>-0.36303099999999999</v>
+      </c>
+      <c r="F13">
+        <v>1.4023979999999996</v>
+      </c>
+      <c r="H13">
+        <v>-6.5586700000000002</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C14" t="s">
-        <v>129</v>
-      </c>
-      <c r="H14" t="s">
-        <v>143</v>
+        <v>111</v>
+      </c>
+      <c r="G14">
+        <v>71.664995541401325</v>
+      </c>
+      <c r="H14">
+        <v>111.53475</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C15" t="s">
-        <v>128</v>
-      </c>
-      <c r="H15" t="s">
-        <v>143</v>
+        <v>131</v>
+      </c>
+      <c r="H15">
+        <v>9.6942699999999995</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="C16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" t="s">
-        <v>143</v>
-      </c>
-      <c r="E16" t="s">
-        <v>143</v>
-      </c>
-      <c r="F16" t="s">
-        <v>143</v>
-      </c>
-      <c r="H16" t="s">
-        <v>143</v>
+        <v>132</v>
+      </c>
+      <c r="H16">
+        <v>-194.82335</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C17" t="s">
-        <v>111</v>
-      </c>
-      <c r="G17" t="s">
-        <v>143</v>
-      </c>
-      <c r="H17" t="s">
-        <v>143</v>
+        <v>108</v>
+      </c>
+      <c r="G17">
+        <v>4.7020199490445878</v>
+      </c>
+      <c r="H17">
+        <v>19.032170000000001</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="C18" t="s">
-        <v>131</v>
-      </c>
-      <c r="H18" t="s">
-        <v>143</v>
+        <v>95</v>
+      </c>
+      <c r="F18">
+        <v>7.2377182399999995</v>
+      </c>
+      <c r="G18">
+        <v>-71.664995541401325</v>
+      </c>
+      <c r="H18">
+        <v>-111.53475</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C19" t="s">
-        <v>132</v>
-      </c>
-      <c r="H19" t="s">
-        <v>143</v>
+        <v>127</v>
+      </c>
+      <c r="H19">
+        <v>6.5586700000000002</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="C20" t="s">
-        <v>108</v>
-      </c>
-      <c r="G20" t="s">
-        <v>143</v>
-      </c>
-      <c r="H20" t="s">
-        <v>143</v>
+        <v>134</v>
+      </c>
+      <c r="H20">
+        <v>9.2770700000000001</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C21" t="s">
-        <v>95</v>
-      </c>
-      <c r="F21" t="s">
-        <v>143</v>
-      </c>
-      <c r="G21" t="s">
-        <v>143</v>
-      </c>
-      <c r="H21" t="s">
-        <v>143</v>
+        <v>99</v>
+      </c>
+      <c r="F21">
+        <v>4.1916173000000008</v>
+      </c>
+      <c r="H21">
+        <v>9.2770700000000001</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>7</v>
+      <c r="A22" t="s">
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" t="s">
-        <v>143</v>
-      </c>
-      <c r="E22" t="s">
-        <v>143</v>
-      </c>
-      <c r="F22" t="s">
-        <v>143</v>
-      </c>
-      <c r="G22" t="s">
-        <v>143</v>
+        <v>98</v>
+      </c>
+      <c r="F22">
+        <v>1.6269456000000002</v>
+      </c>
+      <c r="H22">
+        <v>-9.2770700000000001</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C23" t="s">
-        <v>127</v>
-      </c>
-      <c r="H23" t="s">
-        <v>143</v>
+        <v>126</v>
+      </c>
+      <c r="H23">
+        <v>19.032170000000001</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="C24" t="s">
-        <v>96</v>
-      </c>
-      <c r="F24" t="s">
-        <v>143</v>
+        <v>133</v>
+      </c>
+      <c r="H24">
+        <v>6.5586700000000002</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>134</v>
-      </c>
-      <c r="H25" t="s">
-        <v>143</v>
+        <v>69</v>
+      </c>
+      <c r="D25">
+        <v>-3.5483733333333332</v>
+      </c>
+      <c r="E25">
+        <v>-5.1141399999999999</v>
+      </c>
+      <c r="F25">
+        <v>2.8957548500000003</v>
+      </c>
+      <c r="G25">
+        <v>-55.114243439490458</v>
+      </c>
+      <c r="H25">
+        <v>-223.08329999999998</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="C26" t="s">
-        <v>99</v>
-      </c>
-      <c r="F26" t="s">
-        <v>143</v>
-      </c>
-      <c r="H26" t="s">
-        <v>143</v>
+        <v>130</v>
+      </c>
+      <c r="H26">
+        <v>55.509749999999997</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>98</v>
-      </c>
-      <c r="F27" t="s">
-        <v>143</v>
-      </c>
-      <c r="H27" t="s">
-        <v>143</v>
+        <v>76</v>
+      </c>
+      <c r="D27">
+        <v>1.1827907777777777</v>
+      </c>
+      <c r="E27">
+        <v>2.8579599999999998</v>
+      </c>
+      <c r="G27">
+        <v>18.371414076433101</v>
+      </c>
+      <c r="H27">
+        <v>74.361099999999993</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="C28" t="s">
-        <v>126</v>
-      </c>
-      <c r="H28" t="s">
-        <v>143</v>
+        <v>64</v>
+      </c>
+      <c r="D28">
+        <v>-26.333316666666668</v>
+      </c>
+      <c r="E28">
+        <v>18.027699999999999</v>
+      </c>
+      <c r="F28">
+        <v>1.4002630499999997</v>
+      </c>
+      <c r="G28">
+        <v>-99.449092356687899</v>
+      </c>
+      <c r="H28">
+        <v>-196.48520000000002</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>121</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
-        <v>133</v>
-      </c>
-      <c r="H29" t="s">
-        <v>143</v>
+        <v>74</v>
+      </c>
+      <c r="D29">
+        <v>-1.147794</v>
+      </c>
+      <c r="E29">
+        <v>7.9327100000000002</v>
+      </c>
+      <c r="F29">
+        <v>-2.6128070000000001</v>
+      </c>
+      <c r="G29">
+        <v>-18.11748547770706</v>
+      </c>
+      <c r="H29">
+        <v>-255.0085</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B30" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C30" t="s">
-        <v>69</v>
-      </c>
-      <c r="D30" t="s">
-        <v>143</v>
-      </c>
-      <c r="E30" t="s">
-        <v>143</v>
-      </c>
-      <c r="F30" t="s">
-        <v>143</v>
-      </c>
-      <c r="G30" t="s">
-        <v>143</v>
-      </c>
-      <c r="H30" t="s">
-        <v>143</v>
+        <v>73</v>
+      </c>
+      <c r="D30">
+        <v>3.1571200000000004</v>
+      </c>
+      <c r="E30">
+        <v>6.5328200000000001</v>
+      </c>
+      <c r="F30">
+        <v>-1.4023979999999996</v>
+      </c>
+      <c r="G30">
+        <v>48.584104585987149</v>
+      </c>
+      <c r="H30">
+        <v>184.46420000000001</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B31" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="C31" t="s">
-        <v>130</v>
-      </c>
-      <c r="H31" t="s">
-        <v>143</v>
+        <v>94</v>
+      </c>
+      <c r="F31">
+        <v>15.552231000000001</v>
+      </c>
+      <c r="G31">
+        <v>-4.0989647770700683</v>
+      </c>
+      <c r="H31">
+        <v>-34.389800000000001</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>125</v>
       </c>
       <c r="C32" t="s">
-        <v>76</v>
-      </c>
-      <c r="D32" t="s">
-        <v>143</v>
-      </c>
-      <c r="E32" t="s">
-        <v>143</v>
-      </c>
-      <c r="G32" t="s">
-        <v>143</v>
-      </c>
-      <c r="H32" t="s">
-        <v>143</v>
+        <v>137</v>
+      </c>
+      <c r="H32">
+        <v>194.82335</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="C33" t="s">
-        <v>64</v>
-      </c>
-      <c r="D33" t="s">
-        <v>143</v>
-      </c>
-      <c r="E33" t="s">
-        <v>143</v>
-      </c>
-      <c r="F33" t="s">
-        <v>143</v>
-      </c>
-      <c r="G33" t="s">
-        <v>143</v>
-      </c>
-      <c r="H33" t="s">
-        <v>143</v>
+        <v>113</v>
+      </c>
+      <c r="G33">
+        <v>-21.800336433121092</v>
+      </c>
+      <c r="H33">
+        <v>-85.144450000000006</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C34" t="s">
-        <v>74</v>
-      </c>
-      <c r="D34" t="s">
-        <v>143</v>
-      </c>
-      <c r="E34" t="s">
-        <v>143</v>
-      </c>
-      <c r="F34" t="s">
-        <v>143</v>
-      </c>
-      <c r="G34" t="s">
-        <v>143</v>
-      </c>
-      <c r="H34" t="s">
-        <v>143</v>
+        <v>77</v>
+      </c>
+      <c r="D34">
+        <v>-1.2622477777777779</v>
+      </c>
+      <c r="G34">
+        <v>-21.609253630573324</v>
+      </c>
+      <c r="H34">
+        <v>-85.144450000000006</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="C35" t="s">
-        <v>73</v>
-      </c>
-      <c r="D35" t="s">
-        <v>143</v>
-      </c>
-      <c r="E35" t="s">
-        <v>143</v>
-      </c>
-      <c r="F35" t="s">
-        <v>143</v>
-      </c>
-      <c r="G35" t="s">
-        <v>143</v>
-      </c>
-      <c r="H35" t="s">
-        <v>143</v>
+        <v>109</v>
+      </c>
+      <c r="G35">
+        <v>152.49870254777056</v>
+      </c>
+      <c r="H35">
+        <v>621.94600000000003</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="C36" t="s">
-        <v>94</v>
-      </c>
-      <c r="F36" t="s">
-        <v>143</v>
-      </c>
-      <c r="G36" t="s">
-        <v>143</v>
-      </c>
-      <c r="H36" t="s">
-        <v>143</v>
+        <v>66</v>
+      </c>
+      <c r="D36">
+        <v>0.64499955555555555</v>
+      </c>
+      <c r="E36">
+        <v>0.43630799999999997</v>
+      </c>
+      <c r="F36">
+        <v>0.98247184999999992</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>21</v>
+      <c r="A37" t="s">
+        <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>92</v>
-      </c>
-      <c r="F37" t="s">
-        <v>143</v>
+        <v>70</v>
+      </c>
+      <c r="D37">
+        <v>1.110427111111111</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1.0940827</v>
+      </c>
+      <c r="G37">
+        <v>0.47463821656050953</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B38" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="C38" t="s">
-        <v>137</v>
-      </c>
-      <c r="H38" t="s">
-        <v>143</v>
+        <v>107</v>
+      </c>
+      <c r="G38">
+        <v>96.693557961783185</v>
+      </c>
+      <c r="H38">
+        <v>368.92849999999999</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="C39" t="s">
-        <v>113</v>
-      </c>
-      <c r="G39" t="s">
-        <v>143</v>
-      </c>
-      <c r="H39" t="s">
-        <v>143</v>
+        <v>63</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>-1.0940827</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B40" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C40" t="s">
-        <v>77</v>
-      </c>
-      <c r="D40" t="s">
-        <v>143</v>
-      </c>
-      <c r="G40" t="s">
-        <v>143</v>
-      </c>
-      <c r="H40" t="s">
-        <v>143</v>
+        <v>89</v>
+      </c>
+      <c r="E40">
+        <v>16.661799999999999</v>
+      </c>
+      <c r="F40">
+        <v>-0.52456999999999998</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>31</v>
+      <c r="A41" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="C41" t="s">
-        <v>109</v>
-      </c>
-      <c r="G41" t="s">
-        <v>143</v>
-      </c>
-      <c r="H41" t="s">
-        <v>143</v>
+        <v>68</v>
+      </c>
+      <c r="D41">
+        <v>4.5145555555555578E-2</v>
+      </c>
+      <c r="E41">
+        <v>6.5531899999999998</v>
+      </c>
+      <c r="F41">
+        <v>8.8386009200000011</v>
+      </c>
+      <c r="G41">
+        <v>43.535873439490466</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>6</v>
+      <c r="A42" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B42" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="C42" t="s">
-        <v>66</v>
-      </c>
-      <c r="D42" t="s">
-        <v>143</v>
-      </c>
-      <c r="E42" t="s">
-        <v>143</v>
-      </c>
-      <c r="F42" t="s">
-        <v>143</v>
-      </c>
-      <c r="G42" t="s">
-        <v>143</v>
-      </c>
-      <c r="H42" t="s">
-        <v>143</v>
+        <v>97</v>
+      </c>
+      <c r="F42">
+        <v>-3.4710419999999997</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>19</v>
+      <c r="A43" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="C43" t="s">
-        <v>90</v>
-      </c>
-      <c r="F43" t="s">
-        <v>143</v>
+        <v>67</v>
+      </c>
+      <c r="D43">
+        <v>-4.5145555555555578E-2</v>
+      </c>
+      <c r="E43">
+        <v>2.5060199999999999</v>
+      </c>
+      <c r="F43">
+        <v>-4.1916173000000008</v>
+      </c>
+      <c r="G43">
+        <v>-43.535873439490466</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C44" t="s">
-        <v>70</v>
-      </c>
-      <c r="D44" t="s">
-        <v>143</v>
-      </c>
-      <c r="E44" t="s">
-        <v>143</v>
-      </c>
-      <c r="F44" t="s">
-        <v>143</v>
-      </c>
-      <c r="G44" t="s">
-        <v>143</v>
-      </c>
-      <c r="H44" t="s">
-        <v>143</v>
+        <v>96</v>
+      </c>
+      <c r="F44">
+        <v>-5.2775615</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>29</v>
+      <c r="A45" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B45" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C45" t="s">
-        <v>107</v>
-      </c>
-      <c r="G45" t="s">
-        <v>143</v>
-      </c>
-      <c r="H45" t="s">
-        <v>143</v>
+        <v>92</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="C46" t="s">
-        <v>63</v>
-      </c>
-      <c r="D46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E46" t="s">
-        <v>143</v>
-      </c>
-      <c r="F46" t="s">
-        <v>143</v>
-      </c>
-      <c r="G46" t="s">
-        <v>143</v>
-      </c>
-      <c r="H46" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
+      <c r="C47" t="s">
+        <v>144</v>
+      </c>
+      <c r="D47">
+        <v>0.28058811111111109</v>
+      </c>
+      <c r="E47">
+        <v>0.67798099999999994</v>
+      </c>
+      <c r="F47">
+        <v>1.0690674</v>
+      </c>
+      <c r="G47">
+        <v>4.3581671337579584</v>
+      </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
+      <c r="A48" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C48" t="s">
+        <v>146</v>
+      </c>
+      <c r="D48">
+        <v>7.3194888888888885</v>
+      </c>
+      <c r="E48">
+        <v>19.728899999999999</v>
+      </c>
+      <c r="F48">
+        <v>1.6034815000000002</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
+      <c r="A49" s="2"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
+      <c r="A50" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H46">
-      <sortCondition ref="A1"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H48">
+      <sortCondition ref="H1"/>
     </sortState>
   </autoFilter>
+  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD46 A50:XFD1048576 F47:G49 I47:XFD49 A47:D49">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:H1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
